--- a/Code/Results/Cases/Case_0_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_202/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0462997938586156</v>
+        <v>0.01477537992330724</v>
       </c>
       <c r="D2">
-        <v>0.03197612302773223</v>
+        <v>0.01415548937485056</v>
       </c>
       <c r="E2">
-        <v>1.433049207567535</v>
+        <v>0.4214831381992497</v>
       </c>
       <c r="F2">
-        <v>0.5569096728376195</v>
+        <v>0.5645336390059299</v>
       </c>
       <c r="G2">
-        <v>0.0007727670333142204</v>
+        <v>0.002391557367286488</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4000600475736533</v>
+        <v>0.4185668184037183</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.600580844029707</v>
+        <v>1.146770383261071</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7395580714629801</v>
+        <v>0.9335883308125972</v>
       </c>
       <c r="O2">
-        <v>1.544527627023797</v>
+        <v>1.841273413678095</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04041695427329017</v>
+        <v>0.01290205794836652</v>
       </c>
       <c r="D3">
-        <v>0.02856983559034632</v>
+        <v>0.0129809571917221</v>
       </c>
       <c r="E3">
-        <v>1.22966357845003</v>
+        <v>0.3676435516299676</v>
       </c>
       <c r="F3">
-        <v>0.5005588969753276</v>
+        <v>0.5564203375820469</v>
       </c>
       <c r="G3">
-        <v>0.0007774475137892735</v>
+        <v>0.002394573994975358</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3604174198651222</v>
+        <v>0.4132552972077264</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.132869156394378</v>
+        <v>1.004072333210246</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7344075828510981</v>
+        <v>0.9337865576973599</v>
       </c>
       <c r="O3">
-        <v>1.40587686164713</v>
+        <v>1.828548865374387</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03680519663690518</v>
+        <v>0.01174733087957236</v>
       </c>
       <c r="D4">
-        <v>0.02647164561937743</v>
+        <v>0.01225527627693523</v>
       </c>
       <c r="E4">
-        <v>1.107212594144443</v>
+        <v>0.3346800167375221</v>
       </c>
       <c r="F4">
-        <v>0.4673343787574211</v>
+        <v>0.5519166084740306</v>
       </c>
       <c r="G4">
-        <v>0.0007804038907152203</v>
+        <v>0.002396523281744133</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3371108914454197</v>
+        <v>0.4103525423954579</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.846305291798501</v>
+        <v>0.916272061756473</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7321476023114499</v>
+        <v>0.9342993659346988</v>
       </c>
       <c r="O4">
-        <v>1.32525699055239</v>
+        <v>1.822326892161357</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03533300331430667</v>
+        <v>0.01127566297977012</v>
       </c>
       <c r="D5">
-        <v>0.02561480211102207</v>
+        <v>0.01195844569040361</v>
       </c>
       <c r="E5">
-        <v>1.057830312978979</v>
+        <v>0.3212689146550218</v>
       </c>
       <c r="F5">
-        <v>0.4541115068279638</v>
+        <v>0.5502010188825253</v>
       </c>
       <c r="G5">
-        <v>0.0007816300690269743</v>
+        <v>0.002397342118314751</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3278513400712697</v>
+        <v>0.4092594540139203</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.729628813068331</v>
+        <v>0.8804482832820781</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7314443509972293</v>
+        <v>0.9346069210693244</v>
       </c>
       <c r="O5">
-        <v>1.2934448347076</v>
+        <v>1.820189829416194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03508851147961423</v>
+        <v>0.01119727672614346</v>
       </c>
       <c r="D6">
-        <v>0.02547241102086062</v>
+        <v>0.01190909091859638</v>
       </c>
       <c r="E6">
-        <v>1.049659104853433</v>
+        <v>0.3190432737337403</v>
       </c>
       <c r="F6">
-        <v>0.4519341448456871</v>
+        <v>0.5499233640554664</v>
       </c>
       <c r="G6">
-        <v>0.0007818349883198833</v>
+        <v>0.002397479566659727</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3263275596697</v>
+        <v>0.4090833614695697</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.71025936409697</v>
+        <v>0.8744971341569112</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7313404681177218</v>
+        <v>0.9346639515851365</v>
       </c>
       <c r="O6">
-        <v>1.288222711532796</v>
+        <v>1.819858989521947</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0367853442123689</v>
+        <v>0.01174097425258225</v>
       </c>
       <c r="D7">
-        <v>0.02646009742588262</v>
+        <v>0.01225127757560784</v>
       </c>
       <c r="E7">
-        <v>1.106544629489889</v>
+        <v>0.3344990640945298</v>
       </c>
       <c r="F7">
-        <v>0.4671548068950244</v>
+        <v>0.5518929873007536</v>
       </c>
       <c r="G7">
-        <v>0.0007804203398144913</v>
+        <v>0.002396534225542965</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.336985078099886</v>
+        <v>0.4103374374608606</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.844731412333147</v>
+        <v>0.9157891076374369</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7321372482458415</v>
+        <v>0.9343031142614322</v>
       </c>
       <c r="O7">
-        <v>1.324823864491407</v>
+        <v>1.822296459860809</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04427103694759182</v>
+        <v>0.01413040640738217</v>
       </c>
       <c r="D8">
-        <v>0.03080294672313499</v>
+        <v>0.01375146213756295</v>
       </c>
       <c r="E8">
-        <v>1.362359030733074</v>
+        <v>0.4028985512062206</v>
       </c>
       <c r="F8">
-        <v>0.5371762174204449</v>
+        <v>0.5616367164452001</v>
       </c>
       <c r="G8">
-        <v>0.000774364152009354</v>
+        <v>0.002392577401919863</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.386162904753995</v>
+        <v>0.416660776803738</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.439152960876925</v>
+        <v>1.097607000462801</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7375891340884237</v>
+        <v>0.9335756451534962</v>
       </c>
       <c r="O8">
-        <v>1.495726013702068</v>
+        <v>1.836554804035359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05897588877122928</v>
+        <v>0.01877952850743725</v>
       </c>
       <c r="D9">
-        <v>0.03927306664679975</v>
+        <v>0.01665654239830872</v>
       </c>
       <c r="E9">
-        <v>1.887970853269735</v>
+        <v>0.5378681503396194</v>
       </c>
       <c r="F9">
-        <v>0.6868344214378652</v>
+        <v>0.5845579591249361</v>
       </c>
       <c r="G9">
-        <v>0.0007631097972405443</v>
+        <v>0.002385584665110298</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.491882086537089</v>
+        <v>0.4319228239051256</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.612372132719997</v>
+        <v>1.452646574863024</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7558909379784211</v>
+        <v>0.9352431478781682</v>
       </c>
       <c r="O9">
-        <v>1.871240957841593</v>
+        <v>1.877216332760668</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06983028187126195</v>
+        <v>0.02217215385215354</v>
       </c>
       <c r="D10">
-        <v>0.04548008973437589</v>
+        <v>0.0187673965114783</v>
       </c>
       <c r="E10">
-        <v>2.296135095787804</v>
+        <v>0.6376766563314362</v>
       </c>
       <c r="F10">
-        <v>0.8064978390733586</v>
+        <v>0.6037566128758698</v>
       </c>
       <c r="G10">
-        <v>0.0007551696233343173</v>
+        <v>0.0023809093944</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5768483717000308</v>
+        <v>0.4449062604746743</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.483160666313893</v>
+        <v>1.712532936080663</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7746579454917963</v>
+        <v>0.9383441919515434</v>
       </c>
       <c r="O10">
-        <v>2.178708428946663</v>
+        <v>1.914947086865823</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0747878647472362</v>
+        <v>0.02371038538744585</v>
       </c>
       <c r="D11">
-        <v>0.04830365366117206</v>
+        <v>0.01972235998799476</v>
       </c>
       <c r="E11">
-        <v>2.488522605357772</v>
+        <v>0.6832523784450757</v>
       </c>
       <c r="F11">
-        <v>0.8635856291201378</v>
+        <v>0.6130100714400868</v>
       </c>
       <c r="G11">
-        <v>0.0007516161163294677</v>
+        <v>0.00237888180074074</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6174918831989231</v>
+        <v>0.4512028520698763</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.882284850918211</v>
+        <v>1.830545742776565</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7845179133165061</v>
+        <v>0.9401603653511614</v>
       </c>
       <c r="O11">
-        <v>2.327172225671404</v>
+        <v>1.933842830766849</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07666879422833972</v>
+        <v>0.02429212178347484</v>
       </c>
       <c r="D12">
-        <v>0.0493731688794341</v>
+        <v>0.02008319934166281</v>
       </c>
       <c r="E12">
-        <v>2.562527217012104</v>
+        <v>0.700537756248707</v>
       </c>
       <c r="F12">
-        <v>0.8856350762994083</v>
+        <v>0.6165894204194586</v>
       </c>
       <c r="G12">
-        <v>0.0007502777366384355</v>
+        <v>0.002378128188759909</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6332068091380378</v>
+        <v>0.4536437631232175</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.033952477230685</v>
+        <v>1.875202610670215</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7884571823243505</v>
+        <v>0.9409062413005103</v>
       </c>
       <c r="O12">
-        <v>2.38478944534009</v>
+        <v>1.941249106873869</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07626352972151551</v>
+        <v>0.02416686859636741</v>
       </c>
       <c r="D13">
-        <v>0.04914281135985021</v>
+        <v>0.02000552143818624</v>
       </c>
       <c r="E13">
-        <v>2.546534524421602</v>
+        <v>0.6968138140740194</v>
       </c>
       <c r="F13">
-        <v>0.8808662852789553</v>
+        <v>0.6158151880794946</v>
       </c>
       <c r="G13">
-        <v>0.0007505656777587786</v>
+        <v>0.002378289862513608</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6298072609361114</v>
+        <v>0.4531155488270713</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.0012629968802</v>
+        <v>1.865586406318755</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7875993914914119</v>
+        <v>0.9407430209556082</v>
       </c>
       <c r="O13">
-        <v>2.372315651848879</v>
+        <v>1.939642846106665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07494253329166156</v>
+        <v>0.02375826054350227</v>
       </c>
       <c r="D14">
-        <v>0.04839163557597459</v>
+        <v>0.01975206233169757</v>
       </c>
       <c r="E14">
-        <v>2.49458676571075</v>
+        <v>0.6846739070683725</v>
       </c>
       <c r="F14">
-        <v>0.8653906956681396</v>
+        <v>0.6133030353125406</v>
       </c>
       <c r="G14">
-        <v>0.0007515058687262433</v>
+        <v>0.00237881951679215</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6187780339280238</v>
+        <v>0.4514025321081903</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.894751462178135</v>
+        <v>1.83422034164721</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7848377879739701</v>
+        <v>0.9402205649869302</v>
       </c>
       <c r="O14">
-        <v>2.331883441791746</v>
+        <v>1.934447111266593</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07413387692720619</v>
+        <v>0.0235078767495196</v>
       </c>
       <c r="D15">
-        <v>0.047931566511906</v>
+        <v>0.01959670836441063</v>
       </c>
       <c r="E15">
-        <v>2.462923226871695</v>
+        <v>0.6772414204940276</v>
       </c>
       <c r="F15">
-        <v>0.8559692272947643</v>
+        <v>0.6117740859533427</v>
       </c>
       <c r="G15">
-        <v>0.000752082671220301</v>
+        <v>0.002379145791260533</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6120657086093715</v>
+        <v>0.4503606333322736</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.829581891597172</v>
+        <v>1.815003500882028</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7831734676605748</v>
+        <v>0.9399081107642786</v>
       </c>
       <c r="O15">
-        <v>2.307304581608093</v>
+        <v>1.931297298593563</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06950675400810269</v>
+        <v>0.02207152210004892</v>
       </c>
       <c r="D16">
-        <v>0.04529558686690649</v>
+        <v>0.018704879025222</v>
       </c>
       <c r="E16">
-        <v>2.283712531707295</v>
+        <v>0.6347018190504201</v>
       </c>
       <c r="F16">
-        <v>0.8028245578803279</v>
+        <v>0.6031623823148635</v>
       </c>
       <c r="G16">
-        <v>0.0007554029346774027</v>
+        <v>0.002381043892370316</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5742354370276885</v>
+        <v>0.4445026521996098</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.457145321191433</v>
+        <v>1.704816133421332</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7740414678364544</v>
+        <v>0.938233644813522</v>
       </c>
       <c r="O16">
-        <v>2.169192325732837</v>
+        <v>1.913747210937629</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06667376080103793</v>
+        <v>0.02118904231310381</v>
       </c>
       <c r="D17">
-        <v>0.04367868661433505</v>
+        <v>0.0181564009838624</v>
       </c>
       <c r="E17">
-        <v>2.175616319130668</v>
+        <v>0.6086507484823329</v>
       </c>
       <c r="F17">
-        <v>0.7709354210490034</v>
+        <v>0.598012897136698</v>
       </c>
       <c r="G17">
-        <v>0.0007574540115532839</v>
+        <v>0.002382233674281094</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.551563566668996</v>
+        <v>0.4410092319229193</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.229500949491808</v>
+        <v>1.637164541122786</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7687885365049283</v>
+        <v>0.9373101406380897</v>
       </c>
       <c r="O17">
-        <v>2.086775848810873</v>
+        <v>1.903425666063299</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06504611954360229</v>
+        <v>0.02068098568845045</v>
       </c>
       <c r="D18">
-        <v>0.04274866396287536</v>
+        <v>0.01784043598767227</v>
       </c>
       <c r="E18">
-        <v>2.114061375254025</v>
+        <v>0.5936829580297882</v>
       </c>
       <c r="F18">
-        <v>0.7528399893960227</v>
+        <v>0.5950999540970798</v>
       </c>
       <c r="G18">
-        <v>0.0007586393210248787</v>
+        <v>0.002382927347709394</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5387083218034761</v>
+        <v>0.4390366278964777</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.098841713999605</v>
+        <v>1.598233393964222</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7658907000511306</v>
+        <v>0.9368171425011838</v>
       </c>
       <c r="O18">
-        <v>2.040170503470534</v>
+        <v>1.897651884816185</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06449531941616726</v>
+        <v>0.02050888522531125</v>
       </c>
       <c r="D19">
-        <v>0.0424337617050341</v>
+        <v>0.01773337146386922</v>
       </c>
       <c r="E19">
-        <v>2.0933209969796</v>
+        <v>0.5886178234939194</v>
       </c>
       <c r="F19">
-        <v>0.7467540543026701</v>
+        <v>0.5941220657083761</v>
       </c>
       <c r="G19">
-        <v>0.0007590416388704642</v>
+        <v>0.002383163820450066</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5343864481939917</v>
+        <v>0.4383750325710452</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.054647333799153</v>
+        <v>1.585048638276533</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7649303112406187</v>
+        <v>0.936656784343711</v>
       </c>
       <c r="O19">
-        <v>2.024523226368387</v>
+        <v>1.895724903971285</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06697514406447169</v>
+        <v>0.02128303341431348</v>
       </c>
       <c r="D20">
-        <v>0.04385080890989457</v>
+        <v>0.01821483882124397</v>
       </c>
       <c r="E20">
-        <v>2.187057997905399</v>
+        <v>0.6114222486797587</v>
       </c>
       <c r="F20">
-        <v>0.7743042303391547</v>
+        <v>0.5985560035248056</v>
       </c>
       <c r="G20">
-        <v>0.0007572351009003993</v>
+        <v>0.002382106053660506</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5539576170971756</v>
+        <v>0.4413773093462083</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.253704871962498</v>
+        <v>1.644368224109428</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7693348306105605</v>
+        <v>0.9374044993723629</v>
       </c>
       <c r="O20">
-        <v>2.095465474875482</v>
+        <v>1.904507539506199</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07533043799092809</v>
+        <v>0.02387829942901476</v>
       </c>
       <c r="D21">
-        <v>0.04861226355248505</v>
+        <v>0.0198265309149761</v>
       </c>
       <c r="E21">
-        <v>2.509812208046</v>
+        <v>0.6882389470510901</v>
       </c>
       <c r="F21">
-        <v>0.8699241137338589</v>
+        <v>0.6140388687703364</v>
       </c>
       <c r="G21">
-        <v>0.0007512295248419243</v>
+        <v>0.00237866355972001</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6220084688908045</v>
+        <v>0.4519041493197236</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.926021325781562</v>
+        <v>1.843434197735746</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.785643231467688</v>
+        <v>0.9403724467071726</v>
       </c>
       <c r="O21">
-        <v>2.343720071347803</v>
+        <v>1.935966401405011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08081248591997792</v>
+        <v>0.02557002248653362</v>
       </c>
       <c r="D22">
-        <v>0.05172602962815631</v>
+        <v>0.02087527977514014</v>
       </c>
       <c r="E22">
-        <v>2.727569975110526</v>
+        <v>0.7386005215510778</v>
       </c>
       <c r="F22">
-        <v>0.9349597942194237</v>
+        <v>0.624596754278798</v>
       </c>
       <c r="G22">
-        <v>0.0007473461935672927</v>
+        <v>0.002376496388728041</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6683932641117565</v>
+        <v>0.4591137234734006</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.368549638671709</v>
+        <v>1.973347895630809</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7975077263875789</v>
+        <v>0.942650923949401</v>
       </c>
       <c r="O22">
-        <v>2.514200536868316</v>
+        <v>1.957989693282684</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0778843940152143</v>
+        <v>0.02466753240764774</v>
       </c>
       <c r="D23">
-        <v>0.05006387085851571</v>
+        <v>0.02031597085627368</v>
       </c>
       <c r="E23">
-        <v>2.610655800267281</v>
+        <v>0.7117065109468257</v>
       </c>
       <c r="F23">
-        <v>0.8999984006923256</v>
+        <v>0.6189214818977433</v>
       </c>
       <c r="G23">
-        <v>0.0007494154063109574</v>
+        <v>0.002377645505827519</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6434485762590469</v>
+        <v>0.4552355417696319</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.132042502960019</v>
+        <v>1.904028219683141</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7910596476051097</v>
+        <v>0.9414039188168175</v>
       </c>
       <c r="O23">
-        <v>2.422400785534506</v>
+        <v>1.946100965919698</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06683888536905869</v>
+        <v>0.02124054223923366</v>
       </c>
       <c r="D24">
-        <v>0.04377299382875321</v>
+        <v>0.01818842105848972</v>
       </c>
       <c r="E24">
-        <v>2.181883387816626</v>
+        <v>0.610169224616584</v>
       </c>
       <c r="F24">
-        <v>0.772780453886412</v>
+        <v>0.5983103169995303</v>
       </c>
       <c r="G24">
-        <v>0.000757334051284277</v>
+        <v>0.002382163720915243</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5528747117921355</v>
+        <v>0.4412107900238738</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.24276161129626</v>
+        <v>1.64111155523608</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7690874717356593</v>
+        <v>0.937361721597</v>
       </c>
       <c r="O24">
-        <v>2.091534486766164</v>
+        <v>1.904017925587823</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05499164385502553</v>
+        <v>0.0175258141293213</v>
       </c>
       <c r="D25">
-        <v>0.03698546754559828</v>
+        <v>0.01587469203952452</v>
       </c>
       <c r="E25">
-        <v>1.742504516212648</v>
+        <v>0.5012516340736823</v>
       </c>
       <c r="F25">
-        <v>0.644812553356104</v>
+        <v>0.5779454137143745</v>
       </c>
       <c r="G25">
-        <v>0.0007660927822540106</v>
+        <v>0.002387394839848831</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4621285595754046</v>
+        <v>0.4274849926994477</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.293765813611685</v>
+        <v>1.356764648001047</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7500581948651046</v>
+        <v>0.9344619011276194</v>
       </c>
       <c r="O25">
-        <v>1.76465126758103</v>
+        <v>1.864844845256897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_202/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01477537992330724</v>
+        <v>0.04629979385827454</v>
       </c>
       <c r="D2">
-        <v>0.01415548937485056</v>
+        <v>0.03197612302794539</v>
       </c>
       <c r="E2">
-        <v>0.4214831381992497</v>
+        <v>1.433049207567521</v>
       </c>
       <c r="F2">
-        <v>0.5645336390059299</v>
+        <v>0.5569096728376337</v>
       </c>
       <c r="G2">
-        <v>0.002391557367286488</v>
+        <v>0.0007727670333421444</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4185668184037183</v>
+        <v>0.4000600475736249</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.146770383261071</v>
+        <v>3.600580844029878</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9335883308125972</v>
+        <v>0.7395580714629091</v>
       </c>
       <c r="O2">
-        <v>1.841273413678095</v>
+        <v>1.544527627023854</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01290205794836652</v>
+        <v>0.04041695427366676</v>
       </c>
       <c r="D3">
-        <v>0.0129809571917221</v>
+        <v>0.02856983559046711</v>
       </c>
       <c r="E3">
-        <v>0.3676435516299676</v>
+        <v>1.22966357845003</v>
       </c>
       <c r="F3">
-        <v>0.5564203375820469</v>
+        <v>0.5005588969753276</v>
       </c>
       <c r="G3">
-        <v>0.002394573994975358</v>
+        <v>0.0007774475138186965</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4132552972077264</v>
+        <v>0.3604174198651151</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.004072333210246</v>
+        <v>3.13286915639452</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9337865576973599</v>
+        <v>0.7344075828511194</v>
       </c>
       <c r="O3">
-        <v>1.828548865374387</v>
+        <v>1.405876861647158</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01174733087957236</v>
+        <v>0.03680519663645043</v>
       </c>
       <c r="D4">
-        <v>0.01225527627693523</v>
+        <v>0.02647164561938453</v>
       </c>
       <c r="E4">
-        <v>0.3346800167375221</v>
+        <v>1.107212594144457</v>
       </c>
       <c r="F4">
-        <v>0.5519166084740306</v>
+        <v>0.4673343787574069</v>
       </c>
       <c r="G4">
-        <v>0.002396523281744133</v>
+        <v>0.0007804038907164063</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4103525423954579</v>
+        <v>0.3371108914454055</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.916272061756473</v>
+        <v>2.846305291798387</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9342993659346988</v>
+        <v>0.732147602311457</v>
       </c>
       <c r="O4">
-        <v>1.822326892161357</v>
+        <v>1.32525699055239</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01127566297977012</v>
+        <v>0.03533300331431377</v>
       </c>
       <c r="D5">
-        <v>0.01195844569040361</v>
+        <v>0.02561480211114286</v>
       </c>
       <c r="E5">
-        <v>0.3212689146550218</v>
+        <v>1.057830312978965</v>
       </c>
       <c r="F5">
-        <v>0.5502010188825253</v>
+        <v>0.4541115068279638</v>
       </c>
       <c r="G5">
-        <v>0.002397342118314751</v>
+        <v>0.0007816300690853165</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4092594540139203</v>
+        <v>0.327851340071291</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8804482832820781</v>
+        <v>2.729628813068302</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9346069210693244</v>
+        <v>0.7314443509971795</v>
       </c>
       <c r="O5">
-        <v>1.820189829416194</v>
+        <v>1.2934448347076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01119727672614346</v>
+        <v>0.03508851147952186</v>
       </c>
       <c r="D6">
-        <v>0.01190909091859638</v>
+        <v>0.0254724110210951</v>
       </c>
       <c r="E6">
-        <v>0.3190432737337403</v>
+        <v>1.049659104853447</v>
       </c>
       <c r="F6">
-        <v>0.5499233640554664</v>
+        <v>0.4519341448456515</v>
       </c>
       <c r="G6">
-        <v>0.002397479566659727</v>
+        <v>0.0007818349883428016</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4090833614695697</v>
+        <v>0.3263275596696573</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8744971341569112</v>
+        <v>2.710259364097027</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9346639515851365</v>
+        <v>0.7313404681176721</v>
       </c>
       <c r="O6">
-        <v>1.819858989521947</v>
+        <v>1.288222711532882</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01174097425258225</v>
+        <v>0.0367853442125039</v>
       </c>
       <c r="D7">
-        <v>0.01225127757560784</v>
+        <v>0.02646009742599276</v>
       </c>
       <c r="E7">
-        <v>0.3344990640945298</v>
+        <v>1.106544629489932</v>
       </c>
       <c r="F7">
-        <v>0.5518929873007536</v>
+        <v>0.4671548068950102</v>
       </c>
       <c r="G7">
-        <v>0.002396534225542965</v>
+        <v>0.0007804203398141337</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4103374374608606</v>
+        <v>0.3369850780999002</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9157891076374369</v>
+        <v>2.844731412333147</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9343031142614322</v>
+        <v>0.7321372482458415</v>
       </c>
       <c r="O7">
-        <v>1.822296459860809</v>
+        <v>1.324823864491435</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01413040640738217</v>
+        <v>0.04427103694768419</v>
       </c>
       <c r="D8">
-        <v>0.01375146213756295</v>
+        <v>0.03080294672324158</v>
       </c>
       <c r="E8">
-        <v>0.4028985512062206</v>
+        <v>1.362359030733074</v>
       </c>
       <c r="F8">
-        <v>0.5616367164452001</v>
+        <v>0.5371762174204449</v>
       </c>
       <c r="G8">
-        <v>0.002392577401919863</v>
+        <v>0.0007743641519517671</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.416660776803738</v>
+        <v>0.3861629047539736</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.097607000462801</v>
+        <v>3.439152960876982</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9335756451534962</v>
+        <v>0.7375891340884095</v>
       </c>
       <c r="O8">
-        <v>1.836554804035359</v>
+        <v>1.495726013702125</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01877952850743725</v>
+        <v>0.05897588877101612</v>
       </c>
       <c r="D9">
-        <v>0.01665654239830872</v>
+        <v>0.03927306664690633</v>
       </c>
       <c r="E9">
-        <v>0.5378681503396194</v>
+        <v>1.887970853269735</v>
       </c>
       <c r="F9">
-        <v>0.5845579591249361</v>
+        <v>0.6868344214378652</v>
       </c>
       <c r="G9">
-        <v>0.002385584665110298</v>
+        <v>0.0007631097972683668</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4319228239051256</v>
+        <v>0.491882086537089</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.452646574863024</v>
+        <v>4.612372132720111</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9352431478781682</v>
+        <v>0.7558909379783358</v>
       </c>
       <c r="O9">
-        <v>1.877216332760668</v>
+        <v>1.871240957841621</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02217215385215354</v>
+        <v>0.06983028187114826</v>
       </c>
       <c r="D10">
-        <v>0.0187673965114783</v>
+        <v>0.04548008973443274</v>
       </c>
       <c r="E10">
-        <v>0.6376766563314362</v>
+        <v>2.296135095787847</v>
       </c>
       <c r="F10">
-        <v>0.6037566128758698</v>
+        <v>0.8064978390733728</v>
       </c>
       <c r="G10">
-        <v>0.0023809093944</v>
+        <v>0.0007551696233056518</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4449062604746743</v>
+        <v>0.576848371700045</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.712532936080663</v>
+        <v>5.48316066631395</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9383441919515434</v>
+        <v>0.7746579454917963</v>
       </c>
       <c r="O10">
-        <v>1.914947086865823</v>
+        <v>2.178708428946692</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02371038538744585</v>
+        <v>0.0747878647472362</v>
       </c>
       <c r="D11">
-        <v>0.01972235998799476</v>
+        <v>0.0483036536613497</v>
       </c>
       <c r="E11">
-        <v>0.6832523784450757</v>
+        <v>2.488522605357815</v>
       </c>
       <c r="F11">
-        <v>0.6130100714400868</v>
+        <v>0.863585629120152</v>
       </c>
       <c r="G11">
-        <v>0.00237888180074074</v>
+        <v>0.0007516161163874476</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4512028520698763</v>
+        <v>0.6174918831989231</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.830545742776565</v>
+        <v>5.882284850918211</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9401603653511614</v>
+        <v>0.7845179133165061</v>
       </c>
       <c r="O11">
-        <v>1.933842830766849</v>
+        <v>2.327172225671433</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02429212178347484</v>
+        <v>0.07666879422859552</v>
       </c>
       <c r="D12">
-        <v>0.02008319934166281</v>
+        <v>0.04937316887938437</v>
       </c>
       <c r="E12">
-        <v>0.700537756248707</v>
+        <v>2.562527217012061</v>
       </c>
       <c r="F12">
-        <v>0.6165894204194586</v>
+        <v>0.8856350762994225</v>
       </c>
       <c r="G12">
-        <v>0.002378128188759909</v>
+        <v>0.000750277736638605</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4536437631232175</v>
+        <v>0.6332068091380521</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.875202610670215</v>
+        <v>6.033952477230741</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9409062413005103</v>
+        <v>0.7884571823243505</v>
       </c>
       <c r="O12">
-        <v>1.941249106873869</v>
+        <v>2.384789445339976</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02416686859636741</v>
+        <v>0.07626352972172867</v>
       </c>
       <c r="D13">
-        <v>0.02000552143818624</v>
+        <v>0.0491428113599639</v>
       </c>
       <c r="E13">
-        <v>0.6968138140740194</v>
+        <v>2.546534524421574</v>
       </c>
       <c r="F13">
-        <v>0.6158151880794946</v>
+        <v>0.8808662852789695</v>
       </c>
       <c r="G13">
-        <v>0.002378289862513608</v>
+        <v>0.0007505656777899203</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4531155488270713</v>
+        <v>0.6298072609361185</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.865586406318755</v>
+        <v>6.001262996880143</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9407430209556082</v>
+        <v>0.7875993914914261</v>
       </c>
       <c r="O13">
-        <v>1.939642846106665</v>
+        <v>2.372315651848879</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02375826054350227</v>
+        <v>0.07494253329164735</v>
       </c>
       <c r="D14">
-        <v>0.01975206233169757</v>
+        <v>0.04839163557596038</v>
       </c>
       <c r="E14">
-        <v>0.6846739070683725</v>
+        <v>2.494586765710778</v>
       </c>
       <c r="F14">
-        <v>0.6133030353125406</v>
+        <v>0.8653906956681396</v>
       </c>
       <c r="G14">
-        <v>0.00237881951679215</v>
+        <v>0.0007515058687265091</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4514025321081903</v>
+        <v>0.6187780339280309</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.83422034164721</v>
+        <v>5.894751462178135</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9402205649869302</v>
+        <v>0.7848377879739132</v>
       </c>
       <c r="O14">
-        <v>1.934447111266593</v>
+        <v>2.331883441791689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0235078767495196</v>
+        <v>0.07413387692686513</v>
       </c>
       <c r="D15">
-        <v>0.01959670836441063</v>
+        <v>0.04793156651183494</v>
       </c>
       <c r="E15">
-        <v>0.6772414204940276</v>
+        <v>2.462923226871666</v>
       </c>
       <c r="F15">
-        <v>0.6117740859533427</v>
+        <v>0.8559692272947643</v>
       </c>
       <c r="G15">
-        <v>0.002379145791260533</v>
+        <v>0.0007520826712201175</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4503606333322736</v>
+        <v>0.6120657086093786</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.815003500882028</v>
+        <v>5.829581891597115</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9399081107642786</v>
+        <v>0.7831734676605748</v>
       </c>
       <c r="O15">
-        <v>1.931297298593563</v>
+        <v>2.307304581608037</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02207152210004892</v>
+        <v>0.06950675400810269</v>
       </c>
       <c r="D16">
-        <v>0.018704879025222</v>
+        <v>0.04529558686667912</v>
       </c>
       <c r="E16">
-        <v>0.6347018190504201</v>
+        <v>2.28371253170728</v>
       </c>
       <c r="F16">
-        <v>0.6031623823148635</v>
+        <v>0.8028245578803563</v>
       </c>
       <c r="G16">
-        <v>0.002381043892370316</v>
+        <v>0.0007554029347925349</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4445026521996098</v>
+        <v>0.5742354370276956</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.704816133421332</v>
+        <v>5.457145321191433</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.938233644813522</v>
+        <v>0.7740414678364402</v>
       </c>
       <c r="O16">
-        <v>1.913747210937629</v>
+        <v>2.16919232573278</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02118904231310381</v>
+        <v>0.06667376080081056</v>
       </c>
       <c r="D17">
-        <v>0.0181564009838624</v>
+        <v>0.04367868661433505</v>
       </c>
       <c r="E17">
-        <v>0.6086507484823329</v>
+        <v>2.175616319130683</v>
       </c>
       <c r="F17">
-        <v>0.598012897136698</v>
+        <v>0.7709354210490034</v>
       </c>
       <c r="G17">
-        <v>0.002382233674281094</v>
+        <v>0.0007574540115249558</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4410092319229193</v>
+        <v>0.5515635666690102</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.637164541122786</v>
+        <v>5.229500949491865</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9373101406380897</v>
+        <v>0.7687885365048714</v>
       </c>
       <c r="O17">
-        <v>1.903425666063299</v>
+        <v>2.086775848810873</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02068098568845045</v>
+        <v>0.06504611954371597</v>
       </c>
       <c r="D18">
-        <v>0.01784043598767227</v>
+        <v>0.0427486639629393</v>
       </c>
       <c r="E18">
-        <v>0.5936829580297882</v>
+        <v>2.114061375254039</v>
       </c>
       <c r="F18">
-        <v>0.5950999540970798</v>
+        <v>0.7528399893960227</v>
       </c>
       <c r="G18">
-        <v>0.002382927347709394</v>
+        <v>0.0007586393209971698</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4390366278964777</v>
+        <v>0.5387083218034761</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.598233393964222</v>
+        <v>5.098841713999548</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9368171425011838</v>
+        <v>0.7658907000511448</v>
       </c>
       <c r="O18">
-        <v>1.897651884816185</v>
+        <v>2.040170503470534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02050888522531125</v>
+        <v>0.06449531941616016</v>
       </c>
       <c r="D19">
-        <v>0.01773337146386922</v>
+        <v>0.04243376170492041</v>
       </c>
       <c r="E19">
-        <v>0.5886178234939194</v>
+        <v>2.093320996979642</v>
       </c>
       <c r="F19">
-        <v>0.5941220657083761</v>
+        <v>0.7467540543026701</v>
       </c>
       <c r="G19">
-        <v>0.002383163820450066</v>
+        <v>0.0007590416388420784</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4383750325710452</v>
+        <v>0.5343864481939917</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.585048638276533</v>
+        <v>5.054647333799267</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.936656784343711</v>
+        <v>0.7649303112406187</v>
       </c>
       <c r="O19">
-        <v>1.895724903971285</v>
+        <v>2.024523226368387</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02128303341431348</v>
+        <v>0.0669751440644859</v>
       </c>
       <c r="D20">
-        <v>0.01821483882124397</v>
+        <v>0.04385080890978799</v>
       </c>
       <c r="E20">
-        <v>0.6114222486797587</v>
+        <v>2.187057997905399</v>
       </c>
       <c r="F20">
-        <v>0.5985560035248056</v>
+        <v>0.7743042303391547</v>
       </c>
       <c r="G20">
-        <v>0.002382106053660506</v>
+        <v>0.0007572351009007027</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4413773093462083</v>
+        <v>0.5539576170971543</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.644368224109428</v>
+        <v>5.253704871962327</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9374044993723629</v>
+        <v>0.7693348306105605</v>
       </c>
       <c r="O20">
-        <v>1.904507539506199</v>
+        <v>2.095465474875425</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02387829942901476</v>
+        <v>0.07533043799089967</v>
       </c>
       <c r="D21">
-        <v>0.0198265309149761</v>
+        <v>0.04861226355282611</v>
       </c>
       <c r="E21">
-        <v>0.6882389470510901</v>
+        <v>2.509812208046</v>
       </c>
       <c r="F21">
-        <v>0.6140388687703364</v>
+        <v>0.8699241137338731</v>
       </c>
       <c r="G21">
-        <v>0.00237866355972001</v>
+        <v>0.0007512295247532768</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4519041493197236</v>
+        <v>0.6220084688908045</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.843434197735746</v>
+        <v>5.926021325781562</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9403724467071726</v>
+        <v>0.785643231467688</v>
       </c>
       <c r="O21">
-        <v>1.935966401405011</v>
+        <v>2.343720071347803</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02557002248653362</v>
+        <v>0.0808124859202195</v>
       </c>
       <c r="D22">
-        <v>0.02087527977514014</v>
+        <v>0.05172602962815631</v>
       </c>
       <c r="E22">
-        <v>0.7386005215510778</v>
+        <v>2.727569975110498</v>
       </c>
       <c r="F22">
-        <v>0.624596754278798</v>
+        <v>0.9349597942194237</v>
       </c>
       <c r="G22">
-        <v>0.002376496388728041</v>
+        <v>0.0007473461935049537</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4591137234734006</v>
+        <v>0.6683932641117565</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.973347895630809</v>
+        <v>6.368549638671766</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.942650923949401</v>
+        <v>0.7975077263875647</v>
       </c>
       <c r="O22">
-        <v>1.957989693282684</v>
+        <v>2.514200536868344</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02466753240764774</v>
+        <v>0.07788439401518588</v>
       </c>
       <c r="D23">
-        <v>0.02031597085627368</v>
+        <v>0.05006387085851571</v>
       </c>
       <c r="E23">
-        <v>0.7117065109468257</v>
+        <v>2.610655800267281</v>
       </c>
       <c r="F23">
-        <v>0.6189214818977433</v>
+        <v>0.8999984006922972</v>
       </c>
       <c r="G23">
-        <v>0.002377645505827519</v>
+        <v>0.0007494154063397533</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4552355417696319</v>
+        <v>0.6434485762590398</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.904028219683141</v>
+        <v>6.132042502960019</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9414039188168175</v>
+        <v>0.7910596476051808</v>
       </c>
       <c r="O23">
-        <v>1.946100965919698</v>
+        <v>2.422400785534478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02124054223923366</v>
+        <v>0.06683888536917237</v>
       </c>
       <c r="D24">
-        <v>0.01818842105848972</v>
+        <v>0.04377299382845479</v>
       </c>
       <c r="E24">
-        <v>0.610169224616584</v>
+        <v>2.181883387816583</v>
       </c>
       <c r="F24">
-        <v>0.5983103169995303</v>
+        <v>0.7727804538864262</v>
       </c>
       <c r="G24">
-        <v>0.002382163720915243</v>
+        <v>0.0007573340512550063</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4412107900238738</v>
+        <v>0.5528747117921284</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.64111155523608</v>
+        <v>5.24276161129626</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.937361721597</v>
+        <v>0.7690874717355882</v>
       </c>
       <c r="O24">
-        <v>1.904017925587823</v>
+        <v>2.091534486766164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0175258141293213</v>
+        <v>0.05499164385467736</v>
       </c>
       <c r="D25">
-        <v>0.01587469203952452</v>
+        <v>0.03698546754570486</v>
       </c>
       <c r="E25">
-        <v>0.5012516340736823</v>
+        <v>1.742504516212662</v>
       </c>
       <c r="F25">
-        <v>0.5779454137143745</v>
+        <v>0.6448125533561182</v>
       </c>
       <c r="G25">
-        <v>0.002387394839848831</v>
+        <v>0.0007660927822800948</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4274849926994477</v>
+        <v>0.4621285595754188</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.356764648001047</v>
+        <v>4.293765813611742</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9344619011276194</v>
+        <v>0.7500581948651615</v>
       </c>
       <c r="O25">
-        <v>1.864844845256897</v>
+        <v>1.76465126758103</v>
       </c>
     </row>
   </sheetData>
